--- a/public/templates/C-flow_CS_template.xlsx
+++ b/public/templates/C-flow_CS_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\C-Flow\CFLOW\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF20DB3F-9EC2-4699-97B3-F4081DDFDA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A45F17-84AF-4E06-B4CC-893106B9C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="3885" windowWidth="21600" windowHeight="11100" xr2:uid="{83AB77BF-2FDF-4708-8B6D-383C055DB496}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83AB77BF-2FDF-4708-8B6D-383C055DB496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
     <t>Group member limit to 3 person.</t>
   </si>
   <si>
-    <t>Co-advisor is optional.</t>
-  </si>
-  <si>
     <t>Please re-check the correctness of the information.</t>
+  </si>
+  <si>
+    <t>Complete all columns except Co-advisor, which is optional.</t>
   </si>
 </sst>
 </file>
@@ -179,20 +179,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
@@ -533,28 +533,28 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -576,52 +576,52 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="I2" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="I3" s="4">
         <v>1</v>
       </c>
@@ -631,10 +631,10 @@
       <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>65130500201</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="4" t="s">
@@ -644,50 +644,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <v>65130500202</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>65130500203</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="I6" s="4">
         <v>2</v>
       </c>
@@ -697,10 +697,10 @@
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <v>65130500204</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -708,532 +708,616 @@
       </c>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="3">
+      <c r="L7" s="1">
         <v>65130500205</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="I10" s="6" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="I11" s="6" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="6" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="I13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>6</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>7</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>8</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>9</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>10</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>11</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>12</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>13</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>14</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>15</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>16</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>17</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>18</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>19</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>20</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>21</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>22</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
@@ -1249,101 +1333,17 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
